--- a/docs/Splunk_REST_API.xlsx
+++ b/docs/Splunk_REST_API.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="21480" windowHeight="22460" tabRatio="333"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="21480" windowHeight="21720" tabRatio="333"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoints" sheetId="5" r:id="rId1"/>
@@ -1668,19 +1668,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B194" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>287</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>288</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>293</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>271</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>273</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>298</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>299</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>300</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>301</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>302</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>303</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>304</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>305</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>306</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>274</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>308</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>309</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>311</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>312</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>313</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>314</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>315</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>316</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>317</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>318</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>319</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>320</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>321</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>322</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>323</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>324</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>325</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>326</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>327</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>328</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>329</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>330</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>331</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>333</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>334</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>277</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>335</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>337</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>339</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>340</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>341</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>342</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>343</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>344</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>345</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>346</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>348</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>350</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>351</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>352</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>353</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>356</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>203</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>86</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>105</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>87</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>49</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>53</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>52</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>197</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>174</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>125</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>107</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>128</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>201</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>129</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>130</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>131</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>133</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>135</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>136</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>137</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>138</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>139</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>140</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>141</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>142</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>143</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>144</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>145</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>147</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>148</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>149</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>150</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>151</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>152</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>153</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>154</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>155</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>156</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>157</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>158</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>161</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>162</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>163</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>44</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>166</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>25</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>27</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>28</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>168</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>169</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>170</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>200</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>45</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>46</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>47</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>48</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>33</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>175</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>176</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>177</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>61</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>35</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>54</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>59</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>56</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>55</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>60</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>57</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>58</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>62</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>178</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>179</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>180</v>
       </c>
@@ -4341,35 +4341,29 @@
         <v>95</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>63</v>
       </c>
-      <c r="B241" s="2">
-        <v>1</v>
+      <c r="B241" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="C241" t="s">
         <v>84</v>
       </c>
-      <c r="D241" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>64</v>
       </c>
-      <c r="B242" s="2">
-        <v>1</v>
+      <c r="B242" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="C242" t="s">
         <v>84</v>
       </c>
-      <c r="D242" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>181</v>
       </c>
@@ -4380,7 +4374,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>36</v>
       </c>
@@ -4391,7 +4385,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>182</v>
       </c>
@@ -4402,7 +4396,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>37</v>
       </c>
@@ -4413,7 +4407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>65</v>
       </c>
@@ -4427,7 +4421,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>66</v>
       </c>
@@ -4441,7 +4435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>67</v>
       </c>
@@ -4455,7 +4449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>38</v>
       </c>
@@ -4466,7 +4460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>68</v>
       </c>
@@ -4477,7 +4471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>74</v>
       </c>
@@ -4488,7 +4482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>69</v>
       </c>
@@ -4499,7 +4493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>71</v>
       </c>
@@ -4510,7 +4504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>70</v>
       </c>
@@ -4521,7 +4515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>75</v>
       </c>
@@ -4532,7 +4526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>73</v>
       </c>
@@ -4543,7 +4537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>72</v>
       </c>
@@ -4554,7 +4548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>384</v>
       </c>
@@ -4565,7 +4559,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>39</v>
       </c>
@@ -4576,7 +4570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>76</v>
       </c>
@@ -4590,7 +4584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>92</v>
       </c>
@@ -4604,7 +4598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -4615,7 +4609,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>77</v>
       </c>
@@ -4629,7 +4623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>183</v>
       </c>
@@ -4640,7 +4634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>184</v>
       </c>
@@ -4651,7 +4645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>358</v>
       </c>
@@ -4659,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>185</v>
       </c>
@@ -4670,7 +4664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>186</v>
       </c>
@@ -4681,7 +4675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>187</v>
       </c>
@@ -4692,7 +4686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>198</v>
       </c>
@@ -4703,7 +4697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>188</v>
       </c>
@@ -4714,7 +4708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>189</v>
       </c>
@@ -4725,7 +4719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>190</v>
       </c>
@@ -4736,7 +4730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>199</v>
       </c>
@@ -4747,7 +4741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>43</v>
       </c>
@@ -4758,7 +4752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>191</v>
       </c>
@@ -4769,7 +4763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>42</v>
       </c>
@@ -4801,13 +4795,13 @@
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -4815,19 +4809,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>359</v>
       </c>
@@ -4835,91 +4829,91 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>376</v>
       </c>
@@ -4946,13 +4940,13 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" customWidth="1"/>
-    <col min="2" max="2" width="78.5" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>261</v>
       </c>
@@ -4960,7 +4954,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -4968,7 +4962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -4976,7 +4970,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -4984,7 +4978,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -4992,7 +4986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -5000,7 +4994,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5008,7 +5002,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -5016,7 +5010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5024,7 +5018,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -5032,7 +5026,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -5040,7 +5034,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -5048,7 +5042,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -5056,7 +5050,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -5064,7 +5058,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -5072,7 +5066,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -5080,7 +5074,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -5088,7 +5082,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -5096,7 +5090,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>231</v>
       </c>
@@ -5104,7 +5098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -5112,7 +5106,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -5120,7 +5114,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -5128,7 +5122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -5136,7 +5130,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -5144,7 +5138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -5152,7 +5146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>235</v>
       </c>
@@ -5160,7 +5154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -5168,7 +5162,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -5176,7 +5170,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -5184,7 +5178,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>242</v>
       </c>
@@ -5192,7 +5186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -5200,7 +5194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -5208,7 +5202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -5216,7 +5210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5224,7 +5218,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>245</v>
       </c>
@@ -5232,7 +5226,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>246</v>
       </c>
@@ -5240,7 +5234,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -5248,7 +5242,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5256,7 +5250,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5264,7 +5258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -5272,7 +5266,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>247</v>
       </c>
@@ -5280,7 +5274,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>249</v>
       </c>
@@ -5288,7 +5282,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -5296,7 +5290,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>252</v>
       </c>
@@ -5304,7 +5298,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -5312,7 +5306,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -5320,7 +5314,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>255</v>
       </c>
@@ -5328,7 +5322,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -5336,7 +5330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -5344,7 +5338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -5352,7 +5346,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>258</v>
       </c>
@@ -5360,7 +5354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>259</v>
       </c>

--- a/docs/Splunk_REST_API.xlsx
+++ b/docs/Splunk_REST_API.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Refs" sheetId="4" r:id="rId2"/>
     <sheet name="Areas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1668,13 +1668,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
@@ -4792,12 +4792,12 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
